--- a/RegressionTests/Unit_Test_5/transformed_secondzip/aptrans_PPS.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_secondzip/aptrans_PPS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>PPSNO</t>
   </si>
@@ -219,22 +219,10 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>ppsno</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>forename</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>avc</t>
+    <t>SURNAME</t>
+  </si>
+  <si>
+    <t>FORENAME</t>
   </si>
   <si>
     <t>8612683</t>
@@ -2204,28 +2192,28 @@
         <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="6"/>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -2351,7 +2339,7 @@
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>24</v>
@@ -2498,7 +2486,7 @@
     <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="6"/>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>43</v>
@@ -2706,22 +2694,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2746,24 +2734,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_5/transformed_secondzip/aptrans_PPS.xlsx
+++ b/RegressionTests/Unit_Test_5/transformed_secondzip/aptrans_PPS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="152">
   <si>
     <t>PPSNO</t>
   </si>
@@ -359,7 +359,7 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>1161520</t>
+    <t>1178489</t>
   </si>
   <si>
     <t>101001</t>
@@ -368,43 +368,40 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>01/05/2021</t>
-  </si>
-  <si>
-    <t>8,000.00</t>
-  </si>
-  <si>
-    <t>ILIM Test 2</t>
-  </si>
-  <si>
-    <t>1158565</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>7,433.97</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1155233</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>4,282.75</t>
-  </si>
-  <si>
-    <t>ILIM R. O'Brien TVIN</t>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
   </si>
   <si>
     <t>Annually</t>
@@ -569,14 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -589,6 +578,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -616,7 +613,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -625,11 +622,14 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2475,7 +2475,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2498,7 +2498,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2521,7 +2521,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2544,7 +2544,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2567,7 +2567,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2590,7 +2590,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2613,7 +2613,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2636,7 +2636,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2659,7 +2659,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2682,7 +2682,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2705,7 +2705,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2728,7 +2728,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2751,7 +2751,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2774,7 +2774,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2797,7 +2797,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2820,7 +2820,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2843,7 +2843,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2866,7 +2866,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2889,7 +2889,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2912,7 +2912,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3005,31 +3005,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3056,10 +3056,10 @@
         <v>110</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -3067,7 +3067,7 @@
         <v>105</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>107</v>
@@ -3076,19 +3076,19 @@
         <v>108</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -3096,7 +3096,7 @@
         <v>105</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>107</v>
@@ -3105,106 +3105,106 @@
         <v>108</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
@@ -3212,28 +3212,28 @@
         <v>105</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
@@ -3241,28 +3241,28 @@
         <v>105</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -3270,28 +3270,28 @@
         <v>105</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
